--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1125474.313387399</v>
+        <v>1119470.10357212</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969142</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10891126.11608431</v>
+        <v>11147559.08776795</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>223.6073936510867</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>183.1642512458445</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247824</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>73.11206506387288</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>128.4038356853014</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.4571321610379</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952951</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>70.82764119510665</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.287298460645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>87.52274688849819</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>170.4541150725686</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576191</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>113.5262552810692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>244.1831094673601</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>342.064850558529</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784717</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605717463</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>101.1471539705516</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.7673426709149</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>165.3888470662397</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2289,25 +2289,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>53.76947475493767</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>151.8518831495033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2845,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.91555826189153</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>241.1435815093809</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>174.7683347992599</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3672,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>19.91555826189198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>26.70391688093254</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>147.6895341487373</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2232.598233480555</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C2" t="n">
-        <v>1863.635716540143</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1505.370017933393</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1119.581765335148</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>708.595860545541</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>293.5234103905374</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520489</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>2619.198073544677</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1015.34761180106</v>
+        <v>2473.40861130691</v>
       </c>
       <c r="C4" t="n">
-        <v>846.4114288731536</v>
+        <v>2304.472428379003</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>2154.355788966668</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>2006.442695384274</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1859.552747886364</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1691.849911261083</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672848</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672848</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672848</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="X4" t="n">
-        <v>1417.78865577483</v>
+        <v>2875.84965528068</v>
       </c>
       <c r="Y4" t="n">
-        <v>1196.9960766313</v>
+        <v>2655.05707613715</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.1049005553748</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
         <v>381.1049005553748</v>
@@ -4716,13 +4716,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.1049005553748</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250374</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y8" t="n">
-        <v>2656.568750250374</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,16 +4889,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>866.1004720732712</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>697.1642891453644</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>547.0476497330286</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>399.1345561506355</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>252.2446086527251</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>252.2446086527251</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1808.800296392465</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1808.800296392465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1450.534597785714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1064.74634518747</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>653.7604403978623</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>238.6879902428588</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923659</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392465</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1808.800296392465</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927783</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>949.9304447718121</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>949.9304447718121</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>922.6774975139006</v>
+        <v>983.34034846144</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>814.4041655335332</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>664.2875261211974</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672848</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1177.361985719788</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>922.6774975139006</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>922.6774975139006</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>922.6774975139006</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y13" t="n">
-        <v>922.6774975139006</v>
+        <v>983.34034846144</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1822.632236038044</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1453.669719097632</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1095.404020490882</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>709.6157678926375</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>709.6157678926375</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192613</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339057</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X14" t="n">
-        <v>2599.371408077977</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2209.232076102166</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031473</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>752.7622949738584</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C16" t="n">
-        <v>583.8261120459515</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D16" t="n">
-        <v>433.7094726336157</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E16" t="n">
-        <v>433.7094726336157</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F16" t="n">
-        <v>433.7094726336157</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G16" t="n">
-        <v>266.0066360083347</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1672.610059882606</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1383.192889845646</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1155.203338947628</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.4107598040981</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,28 +5503,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,22 +5533,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123325</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123325</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>633.4413279836774</v>
+        <v>763.7541388327661</v>
       </c>
       <c r="C19" t="n">
-        <v>464.5051450557705</v>
+        <v>594.8179559048592</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>594.8179559048592</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>446.9048623224661</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T19" t="n">
-        <v>2097.048807754114</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U19" t="n">
-        <v>1807.973581098312</v>
+        <v>1938.286391947401</v>
       </c>
       <c r="V19" t="n">
-        <v>1553.289092892425</v>
+        <v>1683.601903741514</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.871922855465</v>
+        <v>1394.184733704553</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.882371957447</v>
+        <v>1166.195182806536</v>
       </c>
       <c r="Y19" t="n">
-        <v>815.0897928139171</v>
+        <v>945.4026036630058</v>
       </c>
     </row>
     <row r="20">
@@ -5752,19 +5752,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W22" t="n">
-        <v>3524.185693912098</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>3524.185693912098</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6080,16 +6080,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6460,28 +6460,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2804.65264778894</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>2635.716464861033</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2485.599825448698</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866304</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4670.716426881531</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4487.861592536436</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4268.260127559377</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>3979.184900903575</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V31" t="n">
-        <v>3724.500412697688</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W31" t="n">
-        <v>3435.083242660728</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>3207.09369176271</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>2986.30111261918</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4404.185983673937</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>4149.50149546805</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7165,61 +7165,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2824.769373306003</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>2655.833190378096</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>2505.71655096576</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E40" t="n">
-        <v>2357.803457383367</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>120.7903164630552</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3006.417838136243</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2897.617548589219</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4072.149801703854</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3817.465313497967</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3528.048143461006</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3300.058592562989</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3079.266013419459</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>124.1536493147518</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>32.90770736549997</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>42.02872873825282</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>68.85687509492442</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8157004124949</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>43.60786094376914</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>42.65370535201639</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>52.01660326104852</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>232.4149996343065</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>134.6711151870877</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.45968844823013</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>45.37941682721012</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>125.5054897610393</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812932.1179168979</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812932.117916898</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959986.1899709915</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709915</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959986.1899709915</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959986.1899709915</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217539</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165591</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
@@ -26337,7 +26337,7 @@
         <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217536</v>
@@ -26346,16 +26346,16 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82672692972119e-10</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598197</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545125</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12210.17896214071</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12210.17896214071</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26530,40 +26530,40 @@
         <v>272591.1221574005</v>
       </c>
       <c r="E6" t="n">
-        <v>305630.1442930248</v>
+        <v>24840.00375431571</v>
       </c>
       <c r="F6" t="n">
-        <v>305630.1442930251</v>
+        <v>350252.4655616716</v>
       </c>
       <c r="G6" t="n">
-        <v>40756.81135620871</v>
+        <v>350252.4655616715</v>
       </c>
       <c r="H6" t="n">
-        <v>350599.8448160284</v>
+        <v>350252.4655616722</v>
       </c>
       <c r="I6" t="n">
-        <v>350599.8448160283</v>
+        <v>350252.4655616714</v>
       </c>
       <c r="J6" t="n">
-        <v>133068.6424187509</v>
+        <v>132721.263164394</v>
       </c>
       <c r="K6" t="n">
-        <v>350599.8448160281</v>
+        <v>350252.4655616714</v>
       </c>
       <c r="L6" t="n">
-        <v>350599.8448160286</v>
+        <v>350252.4655616715</v>
       </c>
       <c r="M6" t="n">
-        <v>350599.8448160284</v>
+        <v>265197.4376261595</v>
       </c>
       <c r="N6" t="n">
-        <v>350599.8448160284</v>
+        <v>350252.4655616714</v>
       </c>
       <c r="O6" t="n">
-        <v>268464.0142205771</v>
+        <v>350252.4655616715</v>
       </c>
       <c r="P6" t="n">
-        <v>350599.8448160285</v>
+        <v>350252.4655616715</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483752</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>141.6654981199208</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>111.4435131414759</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>75.50340795433948</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16.35117922901941</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2767095024427</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.5207149607585</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>94.35543628911083</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>147.7570121569881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.44654320283553</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>57.23226802582259</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>514.859801017212</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>378.512347035315</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>401.5213364813676</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33976,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>376.3054212373379</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>240.670908060956</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>263.6798975070086</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>439.190340064064</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1119470.10357212</v>
+        <v>1122625.022914341</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11147559.08776795</v>
+        <v>10891126.11608431</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>223.6073936510867</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>283.6826708844484</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>152.1349909755713</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>128.4038356853014</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.7172236952951</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5.364291051780883</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>192.1675620474802</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>227.7172236952955</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576191</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>121.0107198513696</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>113.5262552810692</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>130.8836446858845</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>20.78061937352953</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784717</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.799772605717463</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>205.1838575377001</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>102.7673426709149</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408071</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>53.76947475493767</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>241.1435815093809</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>81.27859867330056</v>
       </c>
       <c r="C34" t="n">
-        <v>41.74133133758716</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>180.2628815644441</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>26.70391688093254</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>27.31547498186427</v>
       </c>
     </row>
     <row r="44">
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2473.40861130691</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C4" t="n">
-        <v>2304.472428379003</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>2154.355788966668</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>2006.442695384274</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>1859.552747886364</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>1691.849911261083</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178697</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>3103.839206178697</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>3103.839206178697</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>3103.839206178697</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X4" t="n">
-        <v>2875.84965528068</v>
+        <v>906.9191734699991</v>
       </c>
       <c r="Y4" t="n">
-        <v>2655.05707613715</v>
+        <v>686.126594326469</v>
       </c>
     </row>
     <row r="5">
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,16 +4600,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y5" t="n">
         <v>2731.767278738087</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>369.960325236792</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>219.8436858244562</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>71.93059224206311</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>71.93059224206311</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>71.93059224206311</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>71.93059224206311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>720.5449729949386</v>
       </c>
     </row>
     <row r="8">
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,16 +4837,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y8" t="n">
         <v>2731.767278738087</v>
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075815</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718121</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718121</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.34034846144</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4041655335332</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>664.2875261211974</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797194</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X13" t="n">
-        <v>983.34034846144</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.34034846144</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>926.2736972002933</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>926.2736972002933</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>540.485444602049</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>129.4995398124415</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797194</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075815</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852259</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398597</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492582</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474787</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466577</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123006</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852892</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797194</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273915</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516147</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348534</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400726</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121657</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851784</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851784</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851784</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797194</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1720.03812633324</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138424</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703123</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,25 +5503,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5536,19 +5536,19 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>506.2737913123325</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>506.2737913123325</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938885</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327661</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048592</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>594.8179559048592</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>446.9048623224661</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.15024091081</v>
@@ -5688,37 +5688,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806536</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630058</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5746,49 +5746,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192662</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,10 +6007,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6271,7 +6271,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6311,10 +6311,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,19 +6539,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7168,58 +7168,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>267.6802639609656</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>120.7903164630552</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
   </sheetData>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.7203808270995</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>32.90770736549997</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>94.82601070315266</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>390.1411062799239</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8157004124949</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>81.0279806679128</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>42.65370535201639</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>46.45968844823008</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>232.4149996343065</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>45.37941682721012</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>98.55338150863673</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5054897610407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>191.2691783702305</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959986.1899709913</v>
+        <v>812932.1179168978</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959986.1899709913</v>
+        <v>812932.1179168976</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959986.1899709915</v>
+        <v>959986.1899709911</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719632</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719631</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.0176719633</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217539</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217538</v>
+        <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
@@ -26334,13 +26334,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
@@ -26349,13 +26349,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="O2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="O2" t="n">
-        <v>464109.2948217537</v>
-      </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598204</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545144</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316946</v>
+      </c>
+      <c r="C4" t="n">
         <v>91573.95495316941</v>
       </c>
-      <c r="C4" t="n">
-        <v>91573.95495316942</v>
-      </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1056153.623570192</v>
       </c>
       <c r="C6" t="n">
-        <v>272591.1221574006</v>
+        <v>272591.1221574004</v>
       </c>
       <c r="D6" t="n">
         <v>272591.1221574005</v>
       </c>
       <c r="E6" t="n">
-        <v>24840.00375431571</v>
+        <v>305282.5253632188</v>
       </c>
       <c r="F6" t="n">
-        <v>350252.4655616716</v>
+        <v>305282.5253632189</v>
       </c>
       <c r="G6" t="n">
-        <v>350252.4655616715</v>
+        <v>40722.07343077223</v>
       </c>
       <c r="H6" t="n">
-        <v>350252.4655616722</v>
+        <v>350565.106890593</v>
       </c>
       <c r="I6" t="n">
-        <v>350252.4655616714</v>
+        <v>350565.1068905927</v>
       </c>
       <c r="J6" t="n">
-        <v>132721.263164394</v>
+        <v>133033.9044933156</v>
       </c>
       <c r="K6" t="n">
-        <v>350252.4655616714</v>
+        <v>350565.1068905927</v>
       </c>
       <c r="L6" t="n">
-        <v>350252.4655616715</v>
+        <v>350565.1068905928</v>
       </c>
       <c r="M6" t="n">
-        <v>265197.4376261595</v>
+        <v>350565.1068905928</v>
       </c>
       <c r="N6" t="n">
-        <v>350252.4655616714</v>
+        <v>350565.1068905927</v>
       </c>
       <c r="O6" t="n">
-        <v>350252.4655616715</v>
+        <v>268429.2762951413</v>
       </c>
       <c r="P6" t="n">
-        <v>350252.4655616715</v>
+        <v>350565.1068905927</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="E4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>141.6654981199208</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71.00037073623457</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>27.69698920636603</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>16.35117922901941</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.5207149607585</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>90.98812935805721</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>94.35543628911083</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.5207149607581</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>190.707856698949</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>514.859801017212</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643557995</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,34 +32226,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669225</v>
@@ -32265,10 +32265,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>401.5213364813676</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32399,31 +32399,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467222</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33031,13 +33031,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,13 +33268,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>376.3054212373379</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113551</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>263.6798975070086</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
